--- a/FY22/CE-QUAL-W2/CE-QUAL-W2 Workshop Schedule FY22.xlsx
+++ b/FY22/CE-QUAL-W2/CE-QUAL-W2 Workshop Schedule FY22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/Workshops/CE-QUAL-W2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/Workshops/FY22/CE-QUAL-W2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5756F17D-71FD-C74A-844B-AB16F6D380F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13642344-C7EF-E94D-B14E-44203FDF5107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="35820" windowHeight="21900" activeTab="1" xr2:uid="{7D882646-A55C-4A5C-840E-5C8671CF37BB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>Lecture</t>
   </si>
@@ -151,37 +151,10 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Lect 2.2</t>
-  </si>
-  <si>
     <t>Workshop 2.1</t>
   </si>
   <si>
-    <t>Lecture 2.5</t>
-  </si>
-  <si>
-    <t>Workshop 2.3</t>
-  </si>
-  <si>
-    <t>Lecture 2.6</t>
-  </si>
-  <si>
     <t>Workshop 2.2</t>
-  </si>
-  <si>
-    <t>Lect 2.3</t>
-  </si>
-  <si>
-    <t>Lect 2.4</t>
-  </si>
-  <si>
-    <t>Day 3</t>
   </si>
   <si>
     <t xml:space="preserve">Tours:  </t>
@@ -360,22 +333,6 @@
     <t xml:space="preserve">  Model Utilities</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Model Utilities Case Study</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">  Add a port to a dam</t>
   </si>
   <si>
@@ -395,22 +352,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Upgrade to W2 Ver 4.5</t>
-    </r>
-  </si>
-  <si>
     <t>Tour</t>
   </si>
   <si>
@@ -460,9 +401,6 @@
     <t xml:space="preserve">W2 Workshop Agenda  </t>
   </si>
   <si>
-    <t xml:space="preserve">Lect 2.1 - </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -482,9 +420,6 @@
     <t xml:space="preserve">  Time Series Input (change to Data)</t>
   </si>
   <si>
-    <t>May turn into workshop w/ long lecture</t>
-  </si>
-  <si>
     <t>*Supporting staff</t>
   </si>
   <si>
@@ -544,6 +479,68 @@
   </si>
   <si>
     <t>Issac &amp; Zhong</t>
+  </si>
+  <si>
+    <t>Lecture 2.1</t>
+  </si>
+  <si>
+    <t>Lecture 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Study 2.1 - </t>
+  </si>
+  <si>
+    <t>Case Study 2.2</t>
+  </si>
+  <si>
+    <t>Case Study 2.3</t>
+  </si>
+  <si>
+    <t>Case Study 2.4</t>
+  </si>
+  <si>
+    <t>Case Study 2.5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model Utilities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Upgrade to CE-QUAL-W2 Version 4.5</t>
+    </r>
+  </si>
+  <si>
+    <t>Day 1 - Aug 16</t>
+  </si>
+  <si>
+    <t>Day 2 - Aug 17</t>
+  </si>
+  <si>
+    <t>Day 3 - Aug 18</t>
   </si>
 </sst>
 </file>
@@ -1297,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BF4E47-5ECA-4C22-A6F2-A43B1807EA59}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="163" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1309,7 +1306,7 @@
     <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="32.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="8.83203125" style="3"/>
     <col min="14" max="14" width="28" style="19" bestFit="1" customWidth="1"/>
@@ -1318,10 +1315,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="D1" s="26" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1331,7 +1328,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="28" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>1</v>
@@ -1349,41 +1346,41 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H6" s="24" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1414,13 +1411,13 @@
         <v>845</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1432,13 +1429,11 @@
         <v>900</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>92</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G12" s="27"/>
       <c r="H12" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1453,13 +1448,13 @@
         <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -1473,14 +1468,12 @@
         <v>930</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>92</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G14" s="27"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1496,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F15" s="8"/>
       <c r="H15" s="7"/>
@@ -1510,13 +1503,13 @@
         <v>1000</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -1529,17 +1522,15 @@
         <v>1015</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>92</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G17" s="27"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1553,16 +1544,16 @@
       </c>
       <c r="D18" s="8"/>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1578,13 +1569,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1596,7 +1587,7 @@
         <v>1100</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F20" s="8"/>
       <c r="H20" s="9"/>
@@ -1611,10 +1602,10 @@
       </c>
       <c r="D21" s="6"/>
       <c r="F21" s="9" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -1629,7 +1620,7 @@
       </c>
       <c r="D22" s="8"/>
       <c r="F22" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -1646,14 +1637,14 @@
         <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1665,11 +1656,11 @@
         <v>1200</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1681,10 +1672,10 @@
         <v>1215</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H25" s="9"/>
     </row>
@@ -1698,10 +1689,10 @@
         <v>1230</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H26" s="9"/>
     </row>
@@ -1715,13 +1706,13 @@
         <v>1245</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1733,13 +1724,13 @@
         <v>1300</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1751,13 +1742,13 @@
         <v>1315</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1772,7 +1763,7 @@
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
       <c r="H30" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1788,16 +1779,16 @@
         <v>32</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1809,10 +1800,10 @@
         <v>1400</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H32" s="10"/>
     </row>
@@ -1826,16 +1817,16 @@
       </c>
       <c r="D33" s="11"/>
       <c r="F33" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1849,10 +1840,10 @@
       </c>
       <c r="D34" s="11"/>
       <c r="F34" s="9" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1880,7 +1871,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F36" s="8"/>
       <c r="H36" s="9"/>
@@ -1894,13 +1885,13 @@
         <v>1515</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -1915,13 +1906,13 @@
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="12" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1937,16 +1928,16 @@
         <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1958,13 +1949,13 @@
         <v>1600</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1978,7 +1969,7 @@
       <c r="D41" s="11"/>
       <c r="F41" s="17"/>
       <c r="H41" s="13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1993,7 +1984,7 @@
       <c r="D42" s="11"/>
       <c r="F42" s="17"/>
       <c r="H42" s="14" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2020,10 +2011,10 @@
         <v>1700</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
